--- a/utility/app1/regular_gem_xp.xlsx
+++ b/utility/app1/regular_gem_xp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\PycharmProjects\PathOfExile-SkillGemMargins\utility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c63bb72ccca30f88/Documents/Workspace/PathOfExile-SkillGemMargins/utility/app1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815C70BA-1E71-4722-8B77-FC9A0B05F8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{815C70BA-1E71-4722-8B77-FC9A0B05F8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43DC33A5-A5BA-4F57-99D4-B52C4D8C166B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{5A6C99EC-6CA5-4435-8DB8-B2520BE3FFBA}"/>
+    <workbookView xWindow="2475" yWindow="1965" windowWidth="33570" windowHeight="17910" firstSheet="1" activeTab="1" xr2:uid="{5A6C99EC-6CA5-4435-8DB8-B2520BE3FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Experience" sheetId="3" r:id="rId1"/>
@@ -193,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -207,14 +207,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -230,9 +229,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -270,7 +269,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -376,7 +375,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -518,7 +517,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,196 +531,196 @@
       <selection activeCell="AS12" sqref="AS12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="41" width="9.5546875" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="41" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="B1" s="12">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B1" s="11">
         <v>1</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="11">
         <v>2</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>3</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="11">
         <v>4</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="11">
         <v>5</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="11">
         <v>6</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="11">
         <v>7</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="11">
         <v>8</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="11">
         <v>9</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="11">
         <v>10</v>
       </c>
-      <c r="L1" s="12">
+      <c r="L1" s="11">
         <v>11</v>
       </c>
-      <c r="M1" s="12">
+      <c r="M1" s="11">
         <v>12</v>
       </c>
-      <c r="N1" s="12">
+      <c r="N1" s="11">
         <v>13</v>
       </c>
-      <c r="O1" s="12">
+      <c r="O1" s="11">
         <v>14</v>
       </c>
-      <c r="P1" s="12">
+      <c r="P1" s="11">
         <v>15</v>
       </c>
-      <c r="Q1" s="12">
+      <c r="Q1" s="11">
         <v>16</v>
       </c>
-      <c r="R1" s="12">
+      <c r="R1" s="11">
         <v>17</v>
       </c>
-      <c r="S1" s="12">
+      <c r="S1" s="11">
         <v>18</v>
       </c>
-      <c r="T1" s="12">
+      <c r="T1" s="11">
         <v>19</v>
       </c>
-      <c r="U1" s="12">
+      <c r="U1" s="11">
         <v>20</v>
       </c>
-      <c r="V1" s="14">
+      <c r="V1" s="13">
         <v>21</v>
       </c>
-      <c r="W1" s="14">
+      <c r="W1" s="13">
         <v>22</v>
       </c>
-      <c r="X1" s="14">
+      <c r="X1" s="13">
         <v>23</v>
       </c>
-      <c r="Y1" s="14">
+      <c r="Y1" s="13">
         <v>24</v>
       </c>
-      <c r="Z1" s="14">
+      <c r="Z1" s="13">
         <v>25</v>
       </c>
-      <c r="AA1" s="14">
+      <c r="AA1" s="13">
         <v>26</v>
       </c>
-      <c r="AB1" s="14">
+      <c r="AB1" s="13">
         <v>27</v>
       </c>
-      <c r="AC1" s="14">
+      <c r="AC1" s="13">
         <v>28</v>
       </c>
-      <c r="AD1" s="14">
+      <c r="AD1" s="13">
         <v>29</v>
       </c>
-      <c r="AE1" s="14">
+      <c r="AE1" s="13">
         <v>30</v>
       </c>
-      <c r="AF1" s="14">
+      <c r="AF1" s="13">
         <v>31</v>
       </c>
-      <c r="AG1" s="14">
+      <c r="AG1" s="13">
         <v>32</v>
       </c>
-      <c r="AH1" s="14">
+      <c r="AH1" s="13">
         <v>33</v>
       </c>
-      <c r="AI1" s="14">
+      <c r="AI1" s="13">
         <v>34</v>
       </c>
-      <c r="AJ1" s="14">
+      <c r="AJ1" s="13">
         <v>35</v>
       </c>
-      <c r="AK1" s="14">
+      <c r="AK1" s="13">
         <v>36</v>
       </c>
-      <c r="AL1" s="14">
+      <c r="AL1" s="13">
         <v>37</v>
       </c>
-      <c r="AM1" s="14">
+      <c r="AM1" s="13">
         <v>38</v>
       </c>
-      <c r="AN1" s="14">
+      <c r="AN1" s="13">
         <v>39</v>
       </c>
-      <c r="AO1" s="14">
+      <c r="AO1" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>0</v>
       </c>
-      <c r="C2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="D2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="F2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="G2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="H2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="I2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="J2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="K2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="L2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="R2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="S2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U2" s="13">
+      <c r="C2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="N2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="P2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="S2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="T2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U2" s="12">
         <v>-1</v>
       </c>
       <c r="V2">
@@ -785,68 +784,68 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>15249</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>0</v>
       </c>
-      <c r="D3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="J3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="K3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="L3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="R3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="S3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U3" s="13">
+      <c r="D3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="12">
         <v>-1</v>
       </c>
       <c r="V3">
@@ -910,68 +909,68 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>56766</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>41517</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>0</v>
       </c>
-      <c r="E4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="F4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="H4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="I4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="J4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="K4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="L4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="R4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="S4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U4" s="13">
+      <c r="E4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="12">
         <v>-1</v>
       </c>
       <c r="V4">
@@ -1035,68 +1034,68 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>138749</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>123500</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>81983</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>0</v>
       </c>
-      <c r="F5" s="13">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="13">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="13">
-        <v>-1</v>
-      </c>
-      <c r="I5" s="13">
-        <v>-1</v>
-      </c>
-      <c r="J5" s="13">
-        <v>-1</v>
-      </c>
-      <c r="K5" s="13">
-        <v>-1</v>
-      </c>
-      <c r="L5" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N5" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O5" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P5" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>-1</v>
-      </c>
-      <c r="R5" s="13">
-        <v>-1</v>
-      </c>
-      <c r="S5" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T5" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U5" s="13">
+      <c r="F5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="T5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="12">
         <v>-1</v>
       </c>
       <c r="V5">
@@ -1160,68 +1159,68 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>286717</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>271468</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>229951</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>147968</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>0</v>
       </c>
-      <c r="G6" s="13">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="13">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="13">
-        <v>-1</v>
-      </c>
-      <c r="J6" s="13">
-        <v>-1</v>
-      </c>
-      <c r="K6" s="13">
-        <v>-1</v>
-      </c>
-      <c r="L6" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N6" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O6" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P6" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>-1</v>
-      </c>
-      <c r="R6" s="13">
-        <v>-1</v>
-      </c>
-      <c r="S6" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T6" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U6" s="13">
+      <c r="G6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="S6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="12">
         <v>-1</v>
       </c>
       <c r="V6">
@@ -1285,68 +1284,68 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>537274</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>522025</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>480508</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>398525</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>250557</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>0</v>
       </c>
-      <c r="H7" s="13">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="13">
-        <v>-1</v>
-      </c>
-      <c r="J7" s="13">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="13">
-        <v>-1</v>
-      </c>
-      <c r="L7" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M7" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N7" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O7" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P7" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>-1</v>
-      </c>
-      <c r="R7" s="13">
-        <v>-1</v>
-      </c>
-      <c r="S7" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T7" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U7" s="13">
+      <c r="H7" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="12">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="12">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="12">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="12">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R7" s="12">
+        <v>-1</v>
+      </c>
+      <c r="S7" s="12">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="12">
         <v>-1</v>
       </c>
       <c r="V7">
@@ -1410,68 +1409,68 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>942360</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>927111</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>885594</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>803611</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>655643</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>405086</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>0</v>
       </c>
-      <c r="I8" s="13">
-        <v>-1</v>
-      </c>
-      <c r="J8" s="13">
-        <v>-1</v>
-      </c>
-      <c r="K8" s="13">
-        <v>-1</v>
-      </c>
-      <c r="L8" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N8" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O8" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P8" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>-1</v>
-      </c>
-      <c r="R8" s="13">
-        <v>-1</v>
-      </c>
-      <c r="S8" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T8" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U8" s="13">
+      <c r="I8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="12">
         <v>-1</v>
       </c>
       <c r="V8">
@@ -1535,68 +1534,68 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>1390078</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>1374829</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>1333312</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>1251329</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>1103361</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>852804</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <v>447718</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <v>0</v>
       </c>
-      <c r="J9" s="13">
-        <v>-1</v>
-      </c>
-      <c r="K9" s="13">
-        <v>-1</v>
-      </c>
-      <c r="L9" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M9" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N9" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O9" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P9" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>-1</v>
-      </c>
-      <c r="R9" s="13">
-        <v>-1</v>
-      </c>
-      <c r="S9" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T9" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U9" s="13">
+      <c r="J9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="12">
         <v>-1</v>
       </c>
       <c r="V9">
@@ -1660,68 +1659,68 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>2005396</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>1990147</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>1948630</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>1866647</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>1718679</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>1468122</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>1063036</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>615318</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <v>0</v>
       </c>
-      <c r="K10" s="13">
-        <v>-1</v>
-      </c>
-      <c r="L10" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N10" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O10" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P10" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>-1</v>
-      </c>
-      <c r="R10" s="13">
-        <v>-1</v>
-      </c>
-      <c r="S10" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T10" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U10" s="13">
+      <c r="K10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="12">
         <v>-1</v>
       </c>
       <c r="V10">
@@ -1785,68 +1784,68 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>2840035</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>2824786</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>2783269</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>2701286</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>2553318</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>2302761</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>1897675</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>1449957</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <v>834639</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="12">
         <v>0</v>
       </c>
-      <c r="L11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="R11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="S11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U11" s="13">
+      <c r="L11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="12">
         <v>-1</v>
       </c>
       <c r="V11">
@@ -1910,68 +1909,68 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>4410795</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>4395546</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>4354029</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>4272046</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>4124078</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>3873521</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <v>3468435</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <v>3020717</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <v>2405399</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <v>1570760</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="12">
         <v>0</v>
       </c>
-      <c r="M12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="R12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="S12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U12" s="13">
+      <c r="M12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="S12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="12">
         <v>-1</v>
       </c>
       <c r="V12">
@@ -2035,68 +2034,68 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>6044782</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>6029533</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>5988016</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>5906033</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>5758065</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>5507508</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <v>5102422</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>4654704</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <v>4039386</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <v>3204747</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="12">
         <v>1633987</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <v>0</v>
       </c>
-      <c r="N13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="R13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="S13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U13" s="13">
+      <c r="N13" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="12">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R13" s="12">
+        <v>-1</v>
+      </c>
+      <c r="S13" s="12">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="12">
         <v>-1</v>
       </c>
       <c r="V13">
@@ -2160,68 +2159,68 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>8195812</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>8180563</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>8139046</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>8057063</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>7909095</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>7658538</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <v>7253452</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <v>6805734</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <v>6190416</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="12">
         <v>5355777</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="12">
         <v>3785017</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="12">
         <v>2151030</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="12">
         <v>0</v>
       </c>
-      <c r="O14" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P14" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>-1</v>
-      </c>
-      <c r="R14" s="13">
-        <v>-1</v>
-      </c>
-      <c r="S14" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T14" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U14" s="13">
+      <c r="O14" s="12">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="12">
+        <v>-1</v>
+      </c>
+      <c r="S14" s="12">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="12">
         <v>-1</v>
       </c>
       <c r="V14">
@@ -2285,68 +2284,68 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>11008001</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>10992752</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>10951235</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>10869252</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>10721284</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>10470727</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="12">
         <v>10065641</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <v>9617923</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="12">
         <v>9002605</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="12">
         <v>8167966</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="12">
         <v>6597206</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="12">
         <v>4963219</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="12">
         <v>2812189</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="12">
         <v>0</v>
       </c>
-      <c r="P15" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>-1</v>
-      </c>
-      <c r="R15" s="13">
-        <v>-1</v>
-      </c>
-      <c r="S15" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T15" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U15" s="13">
+      <c r="P15" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R15" s="12">
+        <v>-1</v>
+      </c>
+      <c r="S15" s="12">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="12">
         <v>-1</v>
       </c>
       <c r="V15">
@@ -2410,68 +2409,68 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>16107361</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>16092112</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>16050595</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>15968612</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>15820644</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>15570087</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="12">
         <v>15165001</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="12">
         <v>14717283</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="12">
         <v>14101965</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="12">
         <v>13267326</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="12">
         <v>11696566</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="12">
         <v>10062579</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="12">
         <v>7911549</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="12">
         <v>5099360</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="12">
         <v>0</v>
       </c>
-      <c r="Q16" s="13">
-        <v>-1</v>
-      </c>
-      <c r="R16" s="13">
-        <v>-1</v>
-      </c>
-      <c r="S16" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T16" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U16" s="13">
+      <c r="Q16" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="12">
+        <v>-1</v>
+      </c>
+      <c r="S16" s="12">
+        <v>-1</v>
+      </c>
+      <c r="T16" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="12">
         <v>-1</v>
       </c>
       <c r="V16">
@@ -2535,68 +2534,68 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>25508092</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>25492843</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>25451326</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>25369343</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>25221375</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>24970818</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <v>24565732</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>24118014</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
         <v>23502696</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="12">
         <v>22668057</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="12">
         <v>21097297</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="12">
         <v>19463310</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="12">
         <v>17312280</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="12">
         <v>14500091</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="12">
         <v>9400731</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="12">
         <v>0</v>
       </c>
-      <c r="R17" s="13">
-        <v>-1</v>
-      </c>
-      <c r="S17" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T17" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U17" s="13">
+      <c r="R17" s="12">
+        <v>-1</v>
+      </c>
+      <c r="S17" s="12">
+        <v>-1</v>
+      </c>
+      <c r="T17" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U17" s="12">
         <v>-1</v>
       </c>
       <c r="V17">
@@ -2660,68 +2659,68 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>40781458</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>40766209</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>40724692</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>40642709</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>40494741</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>40244184</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <v>39839098</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <v>39391380</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="12">
         <v>38776062</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="12">
         <v>37941423</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="12">
         <v>36370663</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="12">
         <v>34736676</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="12">
         <v>32585646</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="12">
         <v>29773457</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="12">
         <v>24674097</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="12">
         <v>15273366</v>
       </c>
-      <c r="R18" s="13">
+      <c r="R18" s="12">
         <v>0</v>
       </c>
-      <c r="S18" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T18" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U18" s="13">
+      <c r="S18" s="12">
+        <v>-1</v>
+      </c>
+      <c r="T18" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U18" s="12">
         <v>-1</v>
       </c>
       <c r="V18">
@@ -2785,68 +2784,68 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>67068040</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>67052791</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>67011274</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>66929291</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>66781323</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <v>66530766</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="12">
         <v>66125680</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="12">
         <v>65677962</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="12">
         <v>65062644</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="12">
         <v>64228005</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="12">
         <v>62657245</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="12">
         <v>61023258</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="12">
         <v>58872228</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="12">
         <v>56060039</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="12">
         <v>50960679</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="12">
         <v>41559948</v>
       </c>
-      <c r="R19" s="13">
+      <c r="R19" s="12">
         <v>26286582</v>
       </c>
-      <c r="S19" s="13">
+      <c r="S19" s="12">
         <v>0</v>
       </c>
-      <c r="T19" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U19" s="13">
+      <c r="T19" s="12">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="12">
         <v>-1</v>
       </c>
       <c r="V19">
@@ -2910,68 +2909,68 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>129958630</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>129943381</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>129901864</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>129819881</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>129671913</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <v>129421356</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <v>129016270</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <v>128568552</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="12">
         <v>127953234</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="12">
         <v>127118595</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="12">
         <v>125547835</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="12">
         <v>123913848</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="12">
         <v>121762818</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="12">
         <v>118950629</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="12">
         <v>113851269</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="12">
         <v>104450538</v>
       </c>
-      <c r="R20" s="13">
+      <c r="R20" s="12">
         <v>89177172</v>
       </c>
-      <c r="S20" s="13">
+      <c r="S20" s="12">
         <v>62890590</v>
       </c>
-      <c r="T20" s="13">
+      <c r="T20" s="12">
         <v>0</v>
       </c>
-      <c r="U20" s="13">
+      <c r="U20" s="12">
         <v>-1</v>
       </c>
       <c r="V20">
@@ -3035,68 +3034,68 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>342004647</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>341989398</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>341947881</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>341865898</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>341717930</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <v>341467373</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <v>341062287</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <v>340614569</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="12">
         <v>339999251</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="12">
         <v>339164612</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="12">
         <v>337593852</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="12">
         <v>335959865</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="12">
         <v>333808835</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="12">
         <v>330996646</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="12">
         <v>325897286</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="12">
         <v>316496555</v>
       </c>
-      <c r="R21" s="13">
+      <c r="R21" s="12">
         <v>301223189</v>
       </c>
-      <c r="S21" s="13">
+      <c r="S21" s="12">
         <v>274936607</v>
       </c>
-      <c r="T21" s="13">
+      <c r="T21" s="12">
         <v>212046017</v>
       </c>
-      <c r="U21" s="13">
+      <c r="U21" s="12">
         <v>0</v>
       </c>
       <c r="V21">
@@ -3160,8 +3159,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
       <c r="B22">
@@ -3224,69 +3223,69 @@
       <c r="U22">
         <v>0</v>
       </c>
-      <c r="V22" s="13">
+      <c r="V22" s="12">
         <v>0</v>
       </c>
-      <c r="W22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="X22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Y22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Z22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AA22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AB22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AC22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AD22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AE22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AF22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AG22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AH22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AI22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AJ22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AK22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AL22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AM22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AN22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AO22" s="13">
+      <c r="W22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="X22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Y22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Z22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AB22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AC22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AD22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AE22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AF22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AG22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AH22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AI22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AJ22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AK22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AL22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AM22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AN22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AO22" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
       <c r="B23">
@@ -3349,69 +3348,69 @@
       <c r="U23">
         <v>15249</v>
       </c>
-      <c r="V23" s="13">
+      <c r="V23" s="12">
         <v>15249</v>
       </c>
-      <c r="W23" s="13">
+      <c r="W23" s="12">
         <v>0</v>
       </c>
-      <c r="X23" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Y23" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Z23" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AA23" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AB23" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AC23" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AD23" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AE23" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AF23" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AG23" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AH23" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AI23" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AJ23" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AK23" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AL23" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AM23" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AN23" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AO23" s="13">
+      <c r="X23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Y23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Z23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AA23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AB23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AC23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AD23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AE23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AF23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AG23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AH23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AI23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AJ23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AK23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AL23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AM23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AN23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AO23" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
       <c r="B24">
@@ -3474,69 +3473,69 @@
       <c r="U24">
         <v>56766</v>
       </c>
-      <c r="V24" s="13">
+      <c r="V24" s="12">
         <v>56766</v>
       </c>
-      <c r="W24" s="13">
+      <c r="W24" s="12">
         <v>41517</v>
       </c>
-      <c r="X24" s="13">
+      <c r="X24" s="12">
         <v>0</v>
       </c>
-      <c r="Y24" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Z24" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AA24" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AB24" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AC24" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AD24" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AE24" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AF24" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AG24" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AH24" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AI24" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AJ24" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AK24" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AL24" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AM24" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AN24" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AO24" s="13">
+      <c r="Y24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Z24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AA24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AB24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AC24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AD24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AE24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AF24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AG24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AH24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AI24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AJ24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AK24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AL24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AM24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AN24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AO24" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
       <c r="B25">
@@ -3599,69 +3598,69 @@
       <c r="U25">
         <v>138749</v>
       </c>
-      <c r="V25" s="13">
+      <c r="V25" s="12">
         <v>138749</v>
       </c>
-      <c r="W25" s="13">
+      <c r="W25" s="12">
         <v>123500</v>
       </c>
-      <c r="X25" s="13">
+      <c r="X25" s="12">
         <v>81983</v>
       </c>
-      <c r="Y25" s="13">
+      <c r="Y25" s="12">
         <v>0</v>
       </c>
-      <c r="Z25" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AA25" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AB25" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AC25" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AD25" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AE25" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AF25" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AG25" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AH25" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AI25" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AJ25" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AK25" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AL25" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AM25" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AN25" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AO25" s="13">
+      <c r="Z25" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AA25" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AB25" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AC25" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AD25" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AE25" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AF25" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AG25" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AH25" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AI25" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AJ25" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AK25" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AL25" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AM25" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AN25" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AO25" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
       <c r="B26">
@@ -3724,69 +3723,69 @@
       <c r="U26">
         <v>286717</v>
       </c>
-      <c r="V26" s="13">
+      <c r="V26" s="12">
         <v>286717</v>
       </c>
-      <c r="W26" s="13">
+      <c r="W26" s="12">
         <v>271468</v>
       </c>
-      <c r="X26" s="13">
+      <c r="X26" s="12">
         <v>229951</v>
       </c>
-      <c r="Y26" s="13">
+      <c r="Y26" s="12">
         <v>147968</v>
       </c>
-      <c r="Z26" s="13">
+      <c r="Z26" s="12">
         <v>0</v>
       </c>
-      <c r="AA26" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AB26" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AC26" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AD26" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AE26" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AF26" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AG26" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AH26" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AI26" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AJ26" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AK26" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AL26" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AM26" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AN26" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AO26" s="13">
+      <c r="AA26" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AB26" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AC26" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AD26" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AE26" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AF26" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AG26" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AH26" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AI26" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AJ26" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AK26" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AL26" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AM26" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AN26" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AO26" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
       <c r="B27">
@@ -3849,69 +3848,69 @@
       <c r="U27">
         <v>537274</v>
       </c>
-      <c r="V27" s="13">
+      <c r="V27" s="12">
         <v>537274</v>
       </c>
-      <c r="W27" s="13">
+      <c r="W27" s="12">
         <v>522025</v>
       </c>
-      <c r="X27" s="13">
+      <c r="X27" s="12">
         <v>480508</v>
       </c>
-      <c r="Y27" s="13">
+      <c r="Y27" s="12">
         <v>398525</v>
       </c>
-      <c r="Z27" s="13">
+      <c r="Z27" s="12">
         <v>250557</v>
       </c>
-      <c r="AA27" s="13">
+      <c r="AA27" s="12">
         <v>0</v>
       </c>
-      <c r="AB27" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AC27" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AD27" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AE27" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AF27" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AG27" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AH27" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AI27" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AJ27" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AK27" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AL27" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AM27" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AN27" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AO27" s="13">
+      <c r="AB27" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AC27" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AD27" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AE27" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AF27" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AG27" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AH27" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AI27" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AJ27" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AK27" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AL27" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AM27" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AN27" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AO27" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
       <c r="B28">
@@ -3974,69 +3973,69 @@
       <c r="U28">
         <v>942360</v>
       </c>
-      <c r="V28" s="13">
+      <c r="V28" s="12">
         <v>942360</v>
       </c>
-      <c r="W28" s="13">
+      <c r="W28" s="12">
         <v>927111</v>
       </c>
-      <c r="X28" s="13">
+      <c r="X28" s="12">
         <v>885594</v>
       </c>
-      <c r="Y28" s="13">
+      <c r="Y28" s="12">
         <v>803611</v>
       </c>
-      <c r="Z28" s="13">
+      <c r="Z28" s="12">
         <v>655643</v>
       </c>
-      <c r="AA28" s="13">
+      <c r="AA28" s="12">
         <v>405086</v>
       </c>
-      <c r="AB28" s="13">
+      <c r="AB28" s="12">
         <v>0</v>
       </c>
-      <c r="AC28" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AD28" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AE28" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AF28" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AG28" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AH28" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AI28" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AJ28" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AK28" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AL28" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AM28" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AN28" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AO28" s="13">
+      <c r="AC28" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AD28" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AE28" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AF28" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AG28" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AH28" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AI28" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AJ28" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AK28" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AL28" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AM28" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AN28" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AO28" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
       <c r="B29">
@@ -4099,69 +4098,69 @@
       <c r="U29">
         <v>1390078</v>
       </c>
-      <c r="V29" s="13">
+      <c r="V29" s="12">
         <v>1390078</v>
       </c>
-      <c r="W29" s="13">
+      <c r="W29" s="12">
         <v>1374829</v>
       </c>
-      <c r="X29" s="13">
+      <c r="X29" s="12">
         <v>1333312</v>
       </c>
-      <c r="Y29" s="13">
+      <c r="Y29" s="12">
         <v>1251329</v>
       </c>
-      <c r="Z29" s="13">
+      <c r="Z29" s="12">
         <v>1103361</v>
       </c>
-      <c r="AA29" s="13">
+      <c r="AA29" s="12">
         <v>852804</v>
       </c>
-      <c r="AB29" s="13">
+      <c r="AB29" s="12">
         <v>447718</v>
       </c>
-      <c r="AC29" s="13">
+      <c r="AC29" s="12">
         <v>0</v>
       </c>
-      <c r="AD29" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AE29" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AF29" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AG29" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AH29" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AI29" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AJ29" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AK29" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AL29" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AM29" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AN29" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AO29" s="13">
+      <c r="AD29" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AE29" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AF29" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AG29" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AH29" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AI29" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AJ29" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AK29" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AL29" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AM29" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AN29" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AO29" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
       <c r="B30">
@@ -4224,69 +4223,69 @@
       <c r="U30">
         <v>2005396</v>
       </c>
-      <c r="V30" s="13">
+      <c r="V30" s="12">
         <v>2005396</v>
       </c>
-      <c r="W30" s="13">
+      <c r="W30" s="12">
         <v>1990147</v>
       </c>
-      <c r="X30" s="13">
+      <c r="X30" s="12">
         <v>1948630</v>
       </c>
-      <c r="Y30" s="13">
+      <c r="Y30" s="12">
         <v>1866647</v>
       </c>
-      <c r="Z30" s="13">
+      <c r="Z30" s="12">
         <v>1718679</v>
       </c>
-      <c r="AA30" s="13">
+      <c r="AA30" s="12">
         <v>1468122</v>
       </c>
-      <c r="AB30" s="13">
+      <c r="AB30" s="12">
         <v>1063036</v>
       </c>
-      <c r="AC30" s="13">
+      <c r="AC30" s="12">
         <v>615318</v>
       </c>
-      <c r="AD30" s="13">
+      <c r="AD30" s="12">
         <v>0</v>
       </c>
-      <c r="AE30" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AF30" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AG30" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AH30" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AI30" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AJ30" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AK30" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AL30" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AM30" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AN30" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AO30" s="13">
+      <c r="AE30" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AF30" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AG30" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AH30" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AI30" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AJ30" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AK30" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AL30" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AM30" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AN30" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AO30" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
         <v>30</v>
       </c>
       <c r="B31">
@@ -4349,69 +4348,69 @@
       <c r="U31">
         <v>2840035</v>
       </c>
-      <c r="V31" s="13">
+      <c r="V31" s="12">
         <v>2840035</v>
       </c>
-      <c r="W31" s="13">
+      <c r="W31" s="12">
         <v>2824786</v>
       </c>
-      <c r="X31" s="13">
+      <c r="X31" s="12">
         <v>2783269</v>
       </c>
-      <c r="Y31" s="13">
+      <c r="Y31" s="12">
         <v>2701286</v>
       </c>
-      <c r="Z31" s="13">
+      <c r="Z31" s="12">
         <v>2553318</v>
       </c>
-      <c r="AA31" s="13">
+      <c r="AA31" s="12">
         <v>2302761</v>
       </c>
-      <c r="AB31" s="13">
+      <c r="AB31" s="12">
         <v>1897675</v>
       </c>
-      <c r="AC31" s="13">
+      <c r="AC31" s="12">
         <v>1449957</v>
       </c>
-      <c r="AD31" s="13">
+      <c r="AD31" s="12">
         <v>834639</v>
       </c>
-      <c r="AE31" s="13">
+      <c r="AE31" s="12">
         <v>0</v>
       </c>
-      <c r="AF31" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AG31" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AH31" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AI31" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AJ31" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AK31" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AL31" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AM31" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AN31" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AO31" s="13">
+      <c r="AF31" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AG31" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AH31" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AI31" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AJ31" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AK31" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AL31" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AM31" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AN31" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AO31" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A32" s="14">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
         <v>31</v>
       </c>
       <c r="B32">
@@ -4474,69 +4473,69 @@
       <c r="U32">
         <v>4410795</v>
       </c>
-      <c r="V32" s="13">
+      <c r="V32" s="12">
         <v>4410795</v>
       </c>
-      <c r="W32" s="13">
+      <c r="W32" s="12">
         <v>4395546</v>
       </c>
-      <c r="X32" s="13">
+      <c r="X32" s="12">
         <v>4354029</v>
       </c>
-      <c r="Y32" s="13">
+      <c r="Y32" s="12">
         <v>4272046</v>
       </c>
-      <c r="Z32" s="13">
+      <c r="Z32" s="12">
         <v>4124078</v>
       </c>
-      <c r="AA32" s="13">
+      <c r="AA32" s="12">
         <v>3873521</v>
       </c>
-      <c r="AB32" s="13">
+      <c r="AB32" s="12">
         <v>3468435</v>
       </c>
-      <c r="AC32" s="13">
+      <c r="AC32" s="12">
         <v>3020717</v>
       </c>
-      <c r="AD32" s="13">
+      <c r="AD32" s="12">
         <v>2405399</v>
       </c>
-      <c r="AE32" s="13">
+      <c r="AE32" s="12">
         <v>1570760</v>
       </c>
-      <c r="AF32" s="13">
+      <c r="AF32" s="12">
         <v>0</v>
       </c>
-      <c r="AG32" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AH32" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AI32" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AJ32" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AK32" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AL32" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AM32" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AN32" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AO32" s="13">
+      <c r="AG32" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AH32" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AI32" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AJ32" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AK32" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AL32" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AM32" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AN32" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AO32" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A33" s="14">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
         <v>32</v>
       </c>
       <c r="B33">
@@ -4599,69 +4598,69 @@
       <c r="U33">
         <v>6044782</v>
       </c>
-      <c r="V33" s="13">
+      <c r="V33" s="12">
         <v>6044782</v>
       </c>
-      <c r="W33" s="13">
+      <c r="W33" s="12">
         <v>6029533</v>
       </c>
-      <c r="X33" s="13">
+      <c r="X33" s="12">
         <v>5988016</v>
       </c>
-      <c r="Y33" s="13">
+      <c r="Y33" s="12">
         <v>5906033</v>
       </c>
-      <c r="Z33" s="13">
+      <c r="Z33" s="12">
         <v>5758065</v>
       </c>
-      <c r="AA33" s="13">
+      <c r="AA33" s="12">
         <v>5507508</v>
       </c>
-      <c r="AB33" s="13">
+      <c r="AB33" s="12">
         <v>5102422</v>
       </c>
-      <c r="AC33" s="13">
+      <c r="AC33" s="12">
         <v>4654704</v>
       </c>
-      <c r="AD33" s="13">
+      <c r="AD33" s="12">
         <v>4039386</v>
       </c>
-      <c r="AE33" s="13">
+      <c r="AE33" s="12">
         <v>3204747</v>
       </c>
-      <c r="AF33" s="13">
+      <c r="AF33" s="12">
         <v>1633987</v>
       </c>
-      <c r="AG33" s="13">
+      <c r="AG33" s="12">
         <v>0</v>
       </c>
-      <c r="AH33" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AI33" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AJ33" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AK33" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AL33" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AM33" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AN33" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AO33" s="13">
+      <c r="AH33" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AI33" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AJ33" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AK33" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AL33" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AM33" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AN33" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AO33" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A34" s="14">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
       <c r="B34">
@@ -4724,69 +4723,69 @@
       <c r="U34">
         <v>8195812</v>
       </c>
-      <c r="V34" s="13">
+      <c r="V34" s="12">
         <v>8195812</v>
       </c>
-      <c r="W34" s="13">
+      <c r="W34" s="12">
         <v>8180563</v>
       </c>
-      <c r="X34" s="13">
+      <c r="X34" s="12">
         <v>8139046</v>
       </c>
-      <c r="Y34" s="13">
+      <c r="Y34" s="12">
         <v>8057063</v>
       </c>
-      <c r="Z34" s="13">
+      <c r="Z34" s="12">
         <v>7909095</v>
       </c>
-      <c r="AA34" s="13">
+      <c r="AA34" s="12">
         <v>7658538</v>
       </c>
-      <c r="AB34" s="13">
+      <c r="AB34" s="12">
         <v>7253452</v>
       </c>
-      <c r="AC34" s="13">
+      <c r="AC34" s="12">
         <v>6805734</v>
       </c>
-      <c r="AD34" s="13">
+      <c r="AD34" s="12">
         <v>6190416</v>
       </c>
-      <c r="AE34" s="13">
+      <c r="AE34" s="12">
         <v>5355777</v>
       </c>
-      <c r="AF34" s="13">
+      <c r="AF34" s="12">
         <v>3785017</v>
       </c>
-      <c r="AG34" s="13">
+      <c r="AG34" s="12">
         <v>2151030</v>
       </c>
-      <c r="AH34" s="13">
+      <c r="AH34" s="12">
         <v>0</v>
       </c>
-      <c r="AI34" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AJ34" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AK34" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AL34" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AM34" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AN34" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AO34" s="13">
+      <c r="AI34" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AJ34" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AK34" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AL34" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AM34" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AN34" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AO34" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A35" s="14">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
         <v>34</v>
       </c>
       <c r="B35">
@@ -4849,69 +4848,69 @@
       <c r="U35">
         <v>11008001</v>
       </c>
-      <c r="V35" s="13">
+      <c r="V35" s="12">
         <v>11008001</v>
       </c>
-      <c r="W35" s="13">
+      <c r="W35" s="12">
         <v>10992752</v>
       </c>
-      <c r="X35" s="13">
+      <c r="X35" s="12">
         <v>10951235</v>
       </c>
-      <c r="Y35" s="13">
+      <c r="Y35" s="12">
         <v>10869252</v>
       </c>
-      <c r="Z35" s="13">
+      <c r="Z35" s="12">
         <v>10721284</v>
       </c>
-      <c r="AA35" s="13">
+      <c r="AA35" s="12">
         <v>10470727</v>
       </c>
-      <c r="AB35" s="13">
+      <c r="AB35" s="12">
         <v>10065641</v>
       </c>
-      <c r="AC35" s="13">
+      <c r="AC35" s="12">
         <v>9617923</v>
       </c>
-      <c r="AD35" s="13">
+      <c r="AD35" s="12">
         <v>9002605</v>
       </c>
-      <c r="AE35" s="13">
+      <c r="AE35" s="12">
         <v>8167966</v>
       </c>
-      <c r="AF35" s="13">
+      <c r="AF35" s="12">
         <v>6597206</v>
       </c>
-      <c r="AG35" s="13">
+      <c r="AG35" s="12">
         <v>4963219</v>
       </c>
-      <c r="AH35" s="13">
+      <c r="AH35" s="12">
         <v>2812189</v>
       </c>
-      <c r="AI35" s="13">
+      <c r="AI35" s="12">
         <v>0</v>
       </c>
-      <c r="AJ35" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AK35" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AL35" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AM35" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AN35" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AO35" s="13">
+      <c r="AJ35" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AK35" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AL35" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AM35" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AN35" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AO35" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A36" s="14">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
       <c r="B36">
@@ -4974,69 +4973,69 @@
       <c r="U36">
         <v>16107361</v>
       </c>
-      <c r="V36" s="13">
+      <c r="V36" s="12">
         <v>16107361</v>
       </c>
-      <c r="W36" s="13">
+      <c r="W36" s="12">
         <v>16092112</v>
       </c>
-      <c r="X36" s="13">
+      <c r="X36" s="12">
         <v>16050595</v>
       </c>
-      <c r="Y36" s="13">
+      <c r="Y36" s="12">
         <v>15968612</v>
       </c>
-      <c r="Z36" s="13">
+      <c r="Z36" s="12">
         <v>15820644</v>
       </c>
-      <c r="AA36" s="13">
+      <c r="AA36" s="12">
         <v>15570087</v>
       </c>
-      <c r="AB36" s="13">
+      <c r="AB36" s="12">
         <v>15165001</v>
       </c>
-      <c r="AC36" s="13">
+      <c r="AC36" s="12">
         <v>14717283</v>
       </c>
-      <c r="AD36" s="13">
+      <c r="AD36" s="12">
         <v>14101965</v>
       </c>
-      <c r="AE36" s="13">
+      <c r="AE36" s="12">
         <v>13267326</v>
       </c>
-      <c r="AF36" s="13">
+      <c r="AF36" s="12">
         <v>11696566</v>
       </c>
-      <c r="AG36" s="13">
+      <c r="AG36" s="12">
         <v>10062579</v>
       </c>
-      <c r="AH36" s="13">
+      <c r="AH36" s="12">
         <v>7911549</v>
       </c>
-      <c r="AI36" s="13">
+      <c r="AI36" s="12">
         <v>5099360</v>
       </c>
-      <c r="AJ36" s="13">
+      <c r="AJ36" s="12">
         <v>0</v>
       </c>
-      <c r="AK36" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AL36" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AM36" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AN36" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AO36" s="13">
+      <c r="AK36" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AL36" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AM36" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AN36" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AO36" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A37" s="14">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
         <v>36</v>
       </c>
       <c r="B37">
@@ -5099,69 +5098,69 @@
       <c r="U37">
         <v>25508092</v>
       </c>
-      <c r="V37" s="13">
+      <c r="V37" s="12">
         <v>25508092</v>
       </c>
-      <c r="W37" s="13">
+      <c r="W37" s="12">
         <v>25492843</v>
       </c>
-      <c r="X37" s="13">
+      <c r="X37" s="12">
         <v>25451326</v>
       </c>
-      <c r="Y37" s="13">
+      <c r="Y37" s="12">
         <v>25369343</v>
       </c>
-      <c r="Z37" s="13">
+      <c r="Z37" s="12">
         <v>25221375</v>
       </c>
-      <c r="AA37" s="13">
+      <c r="AA37" s="12">
         <v>24970818</v>
       </c>
-      <c r="AB37" s="13">
+      <c r="AB37" s="12">
         <v>24565732</v>
       </c>
-      <c r="AC37" s="13">
+      <c r="AC37" s="12">
         <v>24118014</v>
       </c>
-      <c r="AD37" s="13">
+      <c r="AD37" s="12">
         <v>23502696</v>
       </c>
-      <c r="AE37" s="13">
+      <c r="AE37" s="12">
         <v>22668057</v>
       </c>
-      <c r="AF37" s="13">
+      <c r="AF37" s="12">
         <v>21097297</v>
       </c>
-      <c r="AG37" s="13">
+      <c r="AG37" s="12">
         <v>19463310</v>
       </c>
-      <c r="AH37" s="13">
+      <c r="AH37" s="12">
         <v>17312280</v>
       </c>
-      <c r="AI37" s="13">
+      <c r="AI37" s="12">
         <v>14500091</v>
       </c>
-      <c r="AJ37" s="13">
+      <c r="AJ37" s="12">
         <v>9400731</v>
       </c>
-      <c r="AK37" s="13">
+      <c r="AK37" s="12">
         <v>0</v>
       </c>
-      <c r="AL37" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AM37" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AN37" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AO37" s="13">
+      <c r="AL37" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AM37" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AN37" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AO37" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A38" s="14">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
         <v>37</v>
       </c>
       <c r="B38">
@@ -5224,69 +5223,69 @@
       <c r="U38">
         <v>40781458</v>
       </c>
-      <c r="V38" s="13">
+      <c r="V38" s="12">
         <v>40781458</v>
       </c>
-      <c r="W38" s="13">
+      <c r="W38" s="12">
         <v>40766209</v>
       </c>
-      <c r="X38" s="13">
+      <c r="X38" s="12">
         <v>40724692</v>
       </c>
-      <c r="Y38" s="13">
+      <c r="Y38" s="12">
         <v>40642709</v>
       </c>
-      <c r="Z38" s="13">
+      <c r="Z38" s="12">
         <v>40494741</v>
       </c>
-      <c r="AA38" s="13">
+      <c r="AA38" s="12">
         <v>40244184</v>
       </c>
-      <c r="AB38" s="13">
+      <c r="AB38" s="12">
         <v>39839098</v>
       </c>
-      <c r="AC38" s="13">
+      <c r="AC38" s="12">
         <v>39391380</v>
       </c>
-      <c r="AD38" s="13">
+      <c r="AD38" s="12">
         <v>38776062</v>
       </c>
-      <c r="AE38" s="13">
+      <c r="AE38" s="12">
         <v>37941423</v>
       </c>
-      <c r="AF38" s="13">
+      <c r="AF38" s="12">
         <v>36370663</v>
       </c>
-      <c r="AG38" s="13">
+      <c r="AG38" s="12">
         <v>34736676</v>
       </c>
-      <c r="AH38" s="13">
+      <c r="AH38" s="12">
         <v>32585646</v>
       </c>
-      <c r="AI38" s="13">
+      <c r="AI38" s="12">
         <v>29773457</v>
       </c>
-      <c r="AJ38" s="13">
+      <c r="AJ38" s="12">
         <v>24674097</v>
       </c>
-      <c r="AK38" s="13">
+      <c r="AK38" s="12">
         <v>15273366</v>
       </c>
-      <c r="AL38" s="13">
+      <c r="AL38" s="12">
         <v>0</v>
       </c>
-      <c r="AM38" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AN38" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AO38" s="13">
+      <c r="AM38" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AN38" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AO38" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
         <v>38</v>
       </c>
       <c r="B39">
@@ -5349,69 +5348,69 @@
       <c r="U39">
         <v>67068040</v>
       </c>
-      <c r="V39" s="13">
+      <c r="V39" s="12">
         <v>67068040</v>
       </c>
-      <c r="W39" s="13">
+      <c r="W39" s="12">
         <v>67052791</v>
       </c>
-      <c r="X39" s="13">
+      <c r="X39" s="12">
         <v>67011274</v>
       </c>
-      <c r="Y39" s="13">
+      <c r="Y39" s="12">
         <v>66929291</v>
       </c>
-      <c r="Z39" s="13">
+      <c r="Z39" s="12">
         <v>66781323</v>
       </c>
-      <c r="AA39" s="13">
+      <c r="AA39" s="12">
         <v>66530766</v>
       </c>
-      <c r="AB39" s="13">
+      <c r="AB39" s="12">
         <v>66125680</v>
       </c>
-      <c r="AC39" s="13">
+      <c r="AC39" s="12">
         <v>65677962</v>
       </c>
-      <c r="AD39" s="13">
+      <c r="AD39" s="12">
         <v>65062644</v>
       </c>
-      <c r="AE39" s="13">
+      <c r="AE39" s="12">
         <v>64228005</v>
       </c>
-      <c r="AF39" s="13">
+      <c r="AF39" s="12">
         <v>62657245</v>
       </c>
-      <c r="AG39" s="13">
+      <c r="AG39" s="12">
         <v>61023258</v>
       </c>
-      <c r="AH39" s="13">
+      <c r="AH39" s="12">
         <v>58872228</v>
       </c>
-      <c r="AI39" s="13">
+      <c r="AI39" s="12">
         <v>56060039</v>
       </c>
-      <c r="AJ39" s="13">
+      <c r="AJ39" s="12">
         <v>50960679</v>
       </c>
-      <c r="AK39" s="13">
+      <c r="AK39" s="12">
         <v>41559948</v>
       </c>
-      <c r="AL39" s="13">
+      <c r="AL39" s="12">
         <v>26286582</v>
       </c>
-      <c r="AM39" s="13">
+      <c r="AM39" s="12">
         <v>0</v>
       </c>
-      <c r="AN39" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AO39" s="13">
+      <c r="AN39" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AO39" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A40" s="14">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
         <v>39</v>
       </c>
       <c r="B40">
@@ -5474,69 +5473,69 @@
       <c r="U40">
         <v>129958630</v>
       </c>
-      <c r="V40" s="13">
+      <c r="V40" s="12">
         <v>129958630</v>
       </c>
-      <c r="W40" s="13">
+      <c r="W40" s="12">
         <v>129943381</v>
       </c>
-      <c r="X40" s="13">
+      <c r="X40" s="12">
         <v>129901864</v>
       </c>
-      <c r="Y40" s="13">
+      <c r="Y40" s="12">
         <v>129819881</v>
       </c>
-      <c r="Z40" s="13">
+      <c r="Z40" s="12">
         <v>129671913</v>
       </c>
-      <c r="AA40" s="13">
+      <c r="AA40" s="12">
         <v>129421356</v>
       </c>
-      <c r="AB40" s="13">
+      <c r="AB40" s="12">
         <v>129016270</v>
       </c>
-      <c r="AC40" s="13">
+      <c r="AC40" s="12">
         <v>128568552</v>
       </c>
-      <c r="AD40" s="13">
+      <c r="AD40" s="12">
         <v>127953234</v>
       </c>
-      <c r="AE40" s="13">
+      <c r="AE40" s="12">
         <v>127118595</v>
       </c>
-      <c r="AF40" s="13">
+      <c r="AF40" s="12">
         <v>125547835</v>
       </c>
-      <c r="AG40" s="13">
+      <c r="AG40" s="12">
         <v>123913848</v>
       </c>
-      <c r="AH40" s="13">
+      <c r="AH40" s="12">
         <v>121762818</v>
       </c>
-      <c r="AI40" s="13">
+      <c r="AI40" s="12">
         <v>118950629</v>
       </c>
-      <c r="AJ40" s="13">
+      <c r="AJ40" s="12">
         <v>113851269</v>
       </c>
-      <c r="AK40" s="13">
+      <c r="AK40" s="12">
         <v>104450538</v>
       </c>
-      <c r="AL40" s="13">
+      <c r="AL40" s="12">
         <v>89177172</v>
       </c>
-      <c r="AM40" s="13">
+      <c r="AM40" s="12">
         <v>62890590</v>
       </c>
-      <c r="AN40" s="13">
+      <c r="AN40" s="12">
         <v>0</v>
       </c>
-      <c r="AO40" s="13">
+      <c r="AO40" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A41" s="14">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
         <v>40</v>
       </c>
       <c r="B41">
@@ -5599,64 +5598,64 @@
       <c r="U41">
         <v>342004647</v>
       </c>
-      <c r="V41" s="13">
+      <c r="V41" s="12">
         <v>342004647</v>
       </c>
-      <c r="W41" s="13">
+      <c r="W41" s="12">
         <v>341989398</v>
       </c>
-      <c r="X41" s="13">
+      <c r="X41" s="12">
         <v>341947881</v>
       </c>
-      <c r="Y41" s="13">
+      <c r="Y41" s="12">
         <v>341865898</v>
       </c>
-      <c r="Z41" s="13">
+      <c r="Z41" s="12">
         <v>341717930</v>
       </c>
-      <c r="AA41" s="13">
+      <c r="AA41" s="12">
         <v>341467373</v>
       </c>
-      <c r="AB41" s="13">
+      <c r="AB41" s="12">
         <v>341062287</v>
       </c>
-      <c r="AC41" s="13">
+      <c r="AC41" s="12">
         <v>340614569</v>
       </c>
-      <c r="AD41" s="13">
+      <c r="AD41" s="12">
         <v>339999251</v>
       </c>
-      <c r="AE41" s="13">
+      <c r="AE41" s="12">
         <v>339164612</v>
       </c>
-      <c r="AF41" s="13">
+      <c r="AF41" s="12">
         <v>337593852</v>
       </c>
-      <c r="AG41" s="13">
+      <c r="AG41" s="12">
         <v>335959865</v>
       </c>
-      <c r="AH41" s="13">
+      <c r="AH41" s="12">
         <v>333808835</v>
       </c>
-      <c r="AI41" s="13">
+      <c r="AI41" s="12">
         <v>330996646</v>
       </c>
-      <c r="AJ41" s="13">
+      <c r="AJ41" s="12">
         <v>325897286</v>
       </c>
-      <c r="AK41" s="13">
+      <c r="AK41" s="12">
         <v>316496555</v>
       </c>
-      <c r="AL41" s="13">
+      <c r="AL41" s="12">
         <v>301223189</v>
       </c>
-      <c r="AM41" s="13">
+      <c r="AM41" s="12">
         <v>274936607</v>
       </c>
-      <c r="AN41" s="13">
+      <c r="AN41" s="12">
         <v>212046017</v>
       </c>
-      <c r="AO41" s="13">
+      <c r="AO41" s="12">
         <v>0</v>
       </c>
     </row>
@@ -5669,26 +5668,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D43E92F-372A-425C-BA30-FD8061B75305}">
   <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP43" sqref="B3:AP43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="5.5546875" customWidth="1"/>
-    <col min="13" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.21875" customWidth="1"/>
-    <col min="18" max="22" width="5.5546875" customWidth="1"/>
-    <col min="23" max="38" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="12" width="5.5703125" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
+    <col min="18" max="22" width="5.5703125" customWidth="1"/>
+    <col min="23" max="38" width="9.42578125" customWidth="1"/>
     <col min="39" max="41" width="12" customWidth="1"/>
-    <col min="42" max="42" width="9.44140625" customWidth="1"/>
+    <col min="42" max="42" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C1">
         <v>0</v>
       </c>
@@ -5750,7 +5752,7 @@
         <v>212046017</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -5770,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C3" s="6">
         <v>1</v>
       </c>
@@ -5892,7 +5894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6021,7 +6023,7 @@
       </c>
       <c r="AQ4" s="8"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -6150,7 +6152,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -6280,7 +6282,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -6408,7 +6410,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>5</v>
       </c>
@@ -6537,7 +6539,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>6</v>
       </c>
@@ -6667,7 +6669,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>7</v>
       </c>
@@ -6798,7 +6800,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>8</v>
       </c>
@@ -6930,7 +6932,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>9</v>
       </c>
@@ -7063,7 +7065,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>10</v>
       </c>
@@ -7197,7 +7199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>11</v>
       </c>
@@ -7332,7 +7334,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>12</v>
       </c>
@@ -7468,7 +7470,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>13</v>
       </c>
@@ -7605,7 +7607,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>14</v>
       </c>
@@ -7743,7 +7745,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>15</v>
       </c>
@@ -7882,7 +7884,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>16</v>
       </c>
@@ -8022,7 +8024,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>17</v>
       </c>
@@ -8163,7 +8165,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>18</v>
       </c>
@@ -8305,7 +8307,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>19</v>
       </c>
@@ -8448,7 +8450,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>20</v>
       </c>
@@ -8592,7 +8594,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -8740,7 +8742,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>2</v>
       </c>
@@ -8886,7 +8888,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>3</v>
       </c>
@@ -9033,7 +9035,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>4</v>
       </c>
@@ -9181,7 +9183,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>5</v>
       </c>
@@ -9330,7 +9332,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>6</v>
       </c>
@@ -9480,7 +9482,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>7</v>
       </c>
@@ -9631,7 +9633,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>8</v>
       </c>
@@ -9783,7 +9785,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>9</v>
       </c>
@@ -9936,7 +9938,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>10</v>
       </c>
@@ -10090,7 +10092,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>11</v>
       </c>
@@ -10245,7 +10247,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>12</v>
       </c>
@@ -10401,7 +10403,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <v>13</v>
       </c>
@@ -10558,7 +10560,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <v>14</v>
       </c>
@@ -10716,7 +10718,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
         <v>15</v>
       </c>
@@ -10875,7 +10877,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
         <v>16</v>
       </c>
@@ -11035,7 +11037,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <v>17</v>
       </c>
@@ -11196,7 +11198,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
         <v>18</v>
       </c>
@@ -11228,7 +11230,7 @@
         <f t="shared" si="5"/>
         <v>408130327</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41">
         <f t="shared" si="6"/>
         <v>407682609</v>
       </c>
@@ -11358,7 +11360,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <v>19</v>
       </c>
@@ -11521,7 +11523,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <v>20</v>
       </c>
@@ -11695,22 +11697,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A61B76-8BC2-4B28-838B-57B1D61BF569}">
   <dimension ref="B4:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -11727,7 +11729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -11744,7 +11746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
@@ -11761,7 +11763,7 @@
         <v>15249</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3</v>
       </c>
@@ -11778,7 +11780,7 @@
         <v>56766</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>4</v>
       </c>
@@ -11798,7 +11800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5</v>
       </c>
@@ -11819,7 +11821,7 @@
         <v>407682609</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>6</v>
       </c>
@@ -11836,7 +11838,7 @@
         <v>537274</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7</v>
       </c>
@@ -11853,7 +11855,7 @@
         <v>942360</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>8</v>
       </c>
@@ -11873,7 +11875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>9</v>
       </c>
@@ -11894,7 +11896,7 @@
         <v>5988016</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>10</v>
       </c>
@@ -11911,7 +11913,7 @@
         <v>2840035</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>11</v>
       </c>
@@ -11928,7 +11930,7 @@
         <v>4410795</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>12</v>
       </c>
@@ -11945,7 +11947,7 @@
         <v>6044782</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>13</v>
       </c>
@@ -11962,7 +11964,7 @@
         <v>8195812</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>14</v>
       </c>
@@ -11979,7 +11981,7 @@
         <v>11008001</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>15</v>
       </c>
@@ -11996,7 +11998,7 @@
         <v>16107361</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>16</v>
       </c>
@@ -12013,7 +12015,7 @@
         <v>25508092</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>17</v>
       </c>
@@ -12030,7 +12032,7 @@
         <v>40781458</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>18</v>
       </c>
@@ -12047,7 +12049,7 @@
         <v>67068040</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>19</v>
       </c>
@@ -12064,7 +12066,7 @@
         <v>129958630</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>20</v>
       </c>
@@ -12084,7 +12086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F29">
         <f>2*F26</f>
         <v>684009294</v>
